--- a/doc/功能列表.xlsx
+++ b/doc/功能列表.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84408\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\FinalTest\pd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="0" windowWidth="17664" windowHeight="5208"/>
+    <workbookView xWindow="6792" yWindow="0" windowWidth="17664" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,299 +86,299 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>网络监控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封禁账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解封账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布话题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束话题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题内推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天热搜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时热门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索话题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题内搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户私信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时发布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某位用户的微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取被举报的微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢楚瑜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张剑波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取昨日热门的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取含有关键字的微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取微博状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送话题信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据图表制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计用户构成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权重分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿熊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何佳伟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范中旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李连斌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖冠宏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王伟旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题模块、数据分析模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络监察模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析模块、微博模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户模块、微博模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端与设计模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端与设计模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐东晖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布话题、结束话题、话题内推送、搜索话题、话题内搜索、7天热搜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人页面、主页面、页面头部、管理页面、发送微博、数据图表制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传背景、搜索用户、关注用户、取消关注、发布微博、删除微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博修改、评论微博、点赞微博、at用户、搜索微博、用户私信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth页面、发送话题信息、侧边栏、话题页面、获取用户信息、获取微博状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像、上传背景、搜索用户、关注用户、取消关注、清空个人微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发微博、收藏微博、定时发布、举报微博、获取关注用户的信息、获取当时热门的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时热门、热门用户、获取昨日热门的信息、热门搜索、统计用户构成、用户权重分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某位用户的微博、分页获取微博、获取含有关键字的微博、封禁账号、解封账号、获取被举报的微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册、登陆、账户修改、注销账号、退出登陆、上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张俊仁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>at用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>封禁账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解封账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>auth页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布话题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束话题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题内推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7天热搜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>即时热门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索话题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题内搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户私信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转发微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传背景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时发布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某位用户的微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>·</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微博修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取被举报的微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>举报微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页获取微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢楚瑜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张剑波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取昨日热门的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取含有关键字的微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取微博状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送话题信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据图表制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计用户构成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权重分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿熊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>何佳伟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>范中旭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李连斌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赖冠宏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王伟旭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题模块、数据分析模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络监察模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析模块、微博模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微博模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户模块、微博模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端与设计模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端与设计模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐东晖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布话题、结束话题、话题内推送、搜索话题、话题内搜索、7天热搜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人页面、主页面、页面头部、管理页面、发送微博、数据图表制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传背景、搜索用户、关注用户、取消关注、发布微博、删除微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微博修改、评论微博、点赞微博、at用户、搜索微博、用户私信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>auth页面、发送话题信息、侧边栏、话题页面、获取用户信息、获取微博状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像、上传背景、搜索用户、关注用户、取消关注、清空个人微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转发微博、收藏微博、定时发布、举报微博、获取关注用户的信息、获取当时热门的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>即时热门、热门用户、获取昨日热门的信息、热门搜索、统计用户构成、用户权重分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某位用户的微博、分页获取微博、获取含有关键字的微博、封禁账号、解封账号、获取被举报的微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册、登陆、账户修改、注销账号、退出登陆、上传头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张俊仁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -734,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -770,22 +769,22 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -799,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -808,25 +807,25 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -840,111 +839,111 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -956,112 +955,112 @@
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/doc/功能列表.xlsx
+++ b/doc/功能列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6792" yWindow="0" windowWidth="17664" windowHeight="5208"/>
+    <workbookView xWindow="7968" yWindow="0" windowWidth="17664" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>用户管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -214,171 +214,211 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>分页获取微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢楚瑜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张剑波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取昨日热门的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取含有关键字的微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取微博状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送话题信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据图表制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计用户构成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权重分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿熊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何佳伟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范中旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李连斌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖冠宏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王伟旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题模块、数据分析模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络监察模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析模块、微博模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户模块、微博模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端与设计模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端与设计模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐东晖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布话题、结束话题、话题内推送、搜索话题、话题内搜索、7天热搜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人页面、主页面、页面头部、管理页面、发送微博、数据图表制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传背景、搜索用户、关注用户、取消关注、发布微博、删除微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博修改、评论微博、点赞微博、at用户、搜索微博、用户私信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth页面、发送话题信息、侧边栏、话题页面、获取用户信息、获取微博状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像、上传背景、搜索用户、关注用户、取消关注、清空个人微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发微博、收藏微博、定时发布、举报微博、获取关注用户的信息、获取当时热门的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某位用户的微博、分页获取微博、获取含有关键字的微博、封禁账号、解封账号、获取被举报的微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册、登陆、账户修改、注销账号、退出登陆、上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张俊仁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内实际分工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何佳伟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖冠宏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布微博，删除微博，微博修改，评论微博，点赞微博，at微博的接口，转发微博，收藏微博，举报微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取关注用户的信息，获取热门信息，获取用户的微博，分页获取微博，搜索微博，搜索用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册，登陆，账户修改，注销账号，退出登陆，增加修改头像背景字段的接口，关注用户，取消关注，清空微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐冬会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写处于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时热门、热门用户、获取昨日热门的信息、热门搜索、统计用户构成、用户权重分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时热门、热门用户、获取昨日热门的信息、热门搜索、统计用户构成、用户权重分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户私信获取某位用户的微博、分页获取微博、获取含有关键字的微博、封禁账号、解封账号、获取被举报的微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>举报微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页获取微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢楚瑜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张剑波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取昨日热门的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取含有关键字的微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取微博状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送话题信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据图表制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计用户构成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权重分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿熊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>何佳伟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>范中旭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李连斌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赖冠宏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王伟旭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题模块、数据分析模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络监察模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析模块、微博模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微博模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户模块、微博模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端与设计模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端与设计模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐东晖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布话题、结束话题、话题内推送、搜索话题、话题内搜索、7天热搜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人页面、主页面、页面头部、管理页面、发送微博、数据图表制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传背景、搜索用户、关注用户、取消关注、发布微博、删除微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微博修改、评论微博、点赞微博、at用户、搜索微博、用户私信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>auth页面、发送话题信息、侧边栏、话题页面、获取用户信息、获取微博状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像、上传背景、搜索用户、关注用户、取消关注、清空个人微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转发微博、收藏微博、定时发布、举报微博、获取关注用户的信息、获取当时热门的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>即时热门、热门用户、获取昨日热门的信息、热门搜索、统计用户构成、用户权重分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某位用户的微博、分页获取微博、获取含有关键字的微博、封禁账号、解封账号、获取被举报的微博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册、登陆、账户修改、注销账号、退出登陆、上传头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张俊仁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>at用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -731,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -784,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -807,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
@@ -825,7 +865,7 @@
         <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -842,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -850,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -882,19 +922,19 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
         <v>53</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>54</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -934,16 +974,16 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -955,112 +995,157 @@
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>87</v>
       </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/doc/功能列表.xlsx
+++ b/doc/功能列表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dall\Documents\GitHub\AReallyBigFuckingTest\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4785812D-A0DE-4517-A306-C06C8D0CB72F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19104" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>用户管理</t>
   </si>
@@ -286,12 +292,6 @@
     <t>注册，登陆，账户修改，注销账号，退出登陆，增加修改头像背景字段的接口，关注用户，取消关注，清空微博</t>
   </si>
   <si>
-    <t>发布微博，删除微博，微博修改，评论微博，点赞微博，at微博的接口，转发微博，收藏微博，举报微博</t>
-  </si>
-  <si>
-    <t>获取关注用户的信息，获取热门信息，获取用户的微博，分页获取微博，搜索微博，搜索用户</t>
-  </si>
-  <si>
     <t>徐冬会</t>
   </si>
   <si>
@@ -299,19 +299,75 @@
   </si>
   <si>
     <t>写处于</t>
+  </si>
+  <si>
+    <r>
+      <t>发布微博，删除微博，微博修改，评论微博，点赞微博，at微博的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，转发微博，收藏微博，举报微博</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取关注用户的信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取热门信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，获取用户的微博，分页获取微博，搜索微博，搜索用户</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,24 +390,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -360,326 +399,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -687,255 +428,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,62 +444,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1258,31 +716,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.55454545454545" customWidth="1"/>
-    <col min="2" max="2" width="24.8909090909091" customWidth="1"/>
-    <col min="3" max="3" width="18.4454545454545" customWidth="1"/>
-    <col min="4" max="4" width="20.4454545454545" customWidth="1"/>
-    <col min="5" max="5" width="22.6636363636364" customWidth="1"/>
-    <col min="6" max="7" width="20.4454545454545" customWidth="1"/>
-    <col min="8" max="8" width="18.3363636363636" customWidth="1"/>
-    <col min="9" max="11" width="13.8909090909091" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1378,7 +836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1453,7 +911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -1479,14 +937,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="13" ht="1.2" customHeight="1"/>
-    <row r="14" hidden="1"/>
-    <row r="15" hidden="1"/>
-    <row r="16" hidden="1"/>
-    <row r="18" spans="1:3">
+    <row r="13" spans="1:13" ht="1.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1497,7 +955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1508,7 +966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1519,7 +977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1530,7 +988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1541,7 +999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -1552,7 +1010,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1563,7 +1021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -1574,7 +1032,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -1585,7 +1043,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -1596,12 +1054,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1609,41 +1067,41 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/功能列表.xlsx
+++ b/doc/功能列表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dall\Documents\GitHub\AReallyBigFuckingTest\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\FinalTest\pd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4785812D-A0DE-4517-A306-C06C8D0CB72F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19104" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19104" windowHeight="7356"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,9 +205,6 @@
   </si>
   <si>
     <t>话题模块、数据分析模块</t>
-  </si>
-  <si>
-    <t>发布话题、结束话题、话题内推送、搜索话题、话题内搜索、7天热搜</t>
   </si>
   <si>
     <t>耿熊</t>
@@ -362,11 +358,15 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>发布话题、结束话题、话题内推送、搜索话题、话题内搜索、7天热搜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +445,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,11 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -945,134 +948,134 @@
     <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
         <v>86</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,23 +1083,23 @@
         <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
         <v>90</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
